--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2102.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2102.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.191820565824979</v>
+        <v>3.735172271728516</v>
       </c>
       <c r="B1">
-        <v>2.610815094704267</v>
+        <v>2.678700923919678</v>
       </c>
       <c r="C1">
-        <v>2.319487254524729</v>
+        <v>2.039378643035889</v>
       </c>
       <c r="D1">
-        <v>2.551159435180728</v>
+        <v>1.952785611152649</v>
       </c>
       <c r="E1">
-        <v>3.177154989139145</v>
+        <v>2.086557626724243</v>
       </c>
     </row>
   </sheetData>
